--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Adcy1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Adcy1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H2">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.047924</v>
       </c>
       <c r="O2">
-        <v>0.3512562666744848</v>
+        <v>0.4600512618675063</v>
       </c>
       <c r="P2">
-        <v>0.3512562666744847</v>
+        <v>0.4600512618675063</v>
       </c>
       <c r="Q2">
-        <v>3.122015194145333</v>
+        <v>3.155689493284889</v>
       </c>
       <c r="R2">
-        <v>28.098136747308</v>
+        <v>28.401205439564</v>
       </c>
       <c r="S2">
-        <v>0.1087398684118877</v>
+        <v>0.1558977441612797</v>
       </c>
       <c r="T2">
-        <v>0.1087398684118877</v>
+        <v>0.1558977441612796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H3">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.029504</v>
+        <v>0.018749</v>
       </c>
       <c r="N3">
-        <v>0.08851199999999999</v>
+        <v>0.05624700000000001</v>
       </c>
       <c r="O3">
-        <v>0.6487437333255153</v>
+        <v>0.5399487381324938</v>
       </c>
       <c r="P3">
-        <v>0.6487437333255152</v>
+        <v>0.5399487381324937</v>
       </c>
       <c r="Q3">
-        <v>5.766125717055999</v>
+        <v>3.703740650379667</v>
       </c>
       <c r="R3">
-        <v>51.89513145350399</v>
+        <v>33.333665853417</v>
       </c>
       <c r="S3">
-        <v>0.2008343050011061</v>
+        <v>0.1829726319973186</v>
       </c>
       <c r="T3">
-        <v>0.2008343050011061</v>
+        <v>0.1829726319973186</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>239.481758</v>
       </c>
       <c r="I4">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J4">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,10 +688,10 @@
         <v>0.047924</v>
       </c>
       <c r="O4">
-        <v>0.3512562666744848</v>
+        <v>0.4600512618675063</v>
       </c>
       <c r="P4">
-        <v>0.3512562666744847</v>
+        <v>0.4600512618675063</v>
       </c>
       <c r="Q4">
         <v>1.275213752265778</v>
@@ -700,10 +700,10 @@
         <v>11.476923770392</v>
       </c>
       <c r="S4">
-        <v>0.04441572734125367</v>
+        <v>0.06299826003943544</v>
       </c>
       <c r="T4">
-        <v>0.04441572734125368</v>
+        <v>0.06299826003943543</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>239.481758</v>
       </c>
       <c r="I5">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J5">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.029504</v>
+        <v>0.018749</v>
       </c>
       <c r="N5">
-        <v>0.08851199999999999</v>
+        <v>0.05624700000000001</v>
       </c>
       <c r="O5">
-        <v>0.6487437333255153</v>
+        <v>0.5399487381324938</v>
       </c>
       <c r="P5">
-        <v>0.6487437333255152</v>
+        <v>0.5399487381324937</v>
       </c>
       <c r="Q5">
-        <v>2.355223262677333</v>
+        <v>1.496681160247334</v>
       </c>
       <c r="R5">
-        <v>21.197009364096</v>
+        <v>13.470130442226</v>
       </c>
       <c r="S5">
-        <v>0.08203248598675079</v>
+        <v>0.07393921902258005</v>
       </c>
       <c r="T5">
-        <v>0.08203248598675079</v>
+        <v>0.07393921902258001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H6">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I6">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J6">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,22 +812,22 @@
         <v>0.047924</v>
       </c>
       <c r="O6">
-        <v>0.3512562666744848</v>
+        <v>0.4600512618675063</v>
       </c>
       <c r="P6">
-        <v>0.3512562666744847</v>
+        <v>0.4600512618675063</v>
       </c>
       <c r="Q6">
-        <v>2.596069560672445</v>
+        <v>2.377420453436001</v>
       </c>
       <c r="R6">
-        <v>23.364626046052</v>
+        <v>21.396784080924</v>
       </c>
       <c r="S6">
-        <v>0.09042116865574987</v>
+        <v>0.1174496053563718</v>
       </c>
       <c r="T6">
-        <v>0.09042116865574987</v>
+        <v>0.1174496053563718</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H7">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I7">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J7">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.029504</v>
+        <v>0.018749</v>
       </c>
       <c r="N7">
-        <v>0.08851199999999999</v>
+        <v>0.05624700000000001</v>
       </c>
       <c r="O7">
-        <v>0.6487437333255153</v>
+        <v>0.5399487381324938</v>
       </c>
       <c r="P7">
-        <v>0.6487437333255152</v>
+        <v>0.5399487381324937</v>
       </c>
       <c r="Q7">
-        <v>4.794743947797333</v>
+        <v>2.790308994333</v>
       </c>
       <c r="R7">
-        <v>43.152695530176</v>
+        <v>25.112780948997</v>
       </c>
       <c r="S7">
-        <v>0.1670010533356509</v>
+        <v>0.1378471737016911</v>
       </c>
       <c r="T7">
-        <v>0.1670010533356509</v>
+        <v>0.1378471737016911</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H8">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I8">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J8">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.047924</v>
       </c>
       <c r="O8">
-        <v>0.3512562666744848</v>
+        <v>0.4600512618675063</v>
       </c>
       <c r="P8">
-        <v>0.3512562666744847</v>
+        <v>0.4600512618675063</v>
       </c>
       <c r="Q8">
-        <v>0.5389625480071113</v>
+        <v>0.5659321677240001</v>
       </c>
       <c r="R8">
-        <v>4.850662932064001</v>
+        <v>5.093389509516</v>
       </c>
       <c r="S8">
-        <v>0.01877207921958012</v>
+        <v>0.027958247629945</v>
       </c>
       <c r="T8">
-        <v>0.01877207921958012</v>
+        <v>0.02795824762994499</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H9">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I9">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J9">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.029504</v>
+        <v>0.018749</v>
       </c>
       <c r="N9">
-        <v>0.08851199999999999</v>
+        <v>0.05624700000000001</v>
       </c>
       <c r="O9">
-        <v>0.6487437333255153</v>
+        <v>0.5399487381324938</v>
       </c>
       <c r="P9">
-        <v>0.6487437333255152</v>
+        <v>0.5399487381324937</v>
       </c>
       <c r="Q9">
-        <v>0.9954230249813336</v>
+        <v>0.6642180668970001</v>
       </c>
       <c r="R9">
-        <v>8.958807224832</v>
+        <v>5.977962602073</v>
       </c>
       <c r="S9">
-        <v>0.03467060921215832</v>
+        <v>0.03281377920126693</v>
       </c>
       <c r="T9">
-        <v>0.03467060921215832</v>
+        <v>0.03281377920126692</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H10">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I10">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J10">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1060,22 +1060,22 @@
         <v>0.047924</v>
       </c>
       <c r="O10">
-        <v>0.3512562666744848</v>
+        <v>0.4600512618675063</v>
       </c>
       <c r="P10">
-        <v>0.3512562666744847</v>
+        <v>0.4600512618675063</v>
       </c>
       <c r="Q10">
-        <v>2.552608621619556</v>
+        <v>1.938123483344889</v>
       </c>
       <c r="R10">
-        <v>22.973477594576</v>
+        <v>17.443111350104</v>
       </c>
       <c r="S10">
-        <v>0.08890742304601335</v>
+        <v>0.09574740468047448</v>
       </c>
       <c r="T10">
-        <v>0.08890742304601335</v>
+        <v>0.09574740468047445</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H11">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I11">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J11">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.029504</v>
+        <v>0.018749</v>
       </c>
       <c r="N11">
-        <v>0.08851199999999999</v>
+        <v>0.05624700000000001</v>
       </c>
       <c r="O11">
-        <v>0.6487437333255153</v>
+        <v>0.5399487381324938</v>
       </c>
       <c r="P11">
-        <v>0.6487437333255152</v>
+        <v>0.5399487381324937</v>
       </c>
       <c r="Q11">
-        <v>4.714474883498666</v>
+        <v>2.274718962684667</v>
       </c>
       <c r="R11">
-        <v>42.430273951488</v>
+        <v>20.472470664162</v>
       </c>
       <c r="S11">
-        <v>0.1642052797898492</v>
+        <v>0.1123759342096371</v>
       </c>
       <c r="T11">
-        <v>0.1642052797898492</v>
+        <v>0.1123759342096371</v>
       </c>
     </row>
   </sheetData>
